--- a/CHARGER STATIONS/cargadores_electromaps.xlsx
+++ b/CHARGER STATIONS/cargadores_electromaps.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correoipn-my.sharepoint.com/personal/eamadorm1501_alumno_ipn_mx/Documents/GITHUB/charger-stations-data-cleaned/CHARGER STATIONS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{3C026C52-1F4C-4225-9BAE-0891B02D85B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{901C7772-A20C-4FF7-BBF3-FA647FEA56E9}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{3C026C52-1F4C-4225-9BAE-0891B02D85B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7902D3E9-0C07-4B36-9FA4-9767CB094676}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4680" windowWidth="29040" windowHeight="16440" xr2:uid="{EC0DA7C2-5AA9-4338-A8C5-CFF55C3DB936}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="211">
   <si>
     <t>Direccion</t>
   </si>
@@ -664,6 +664,12 @@
   </si>
   <si>
     <t>100 Avenida Extremadura 03920</t>
+  </si>
+  <si>
+    <t>1877 Avenida de los Insurgentes Sur 01020</t>
+  </si>
+  <si>
+    <t>Nissan Insurgentes (Olivo)</t>
   </si>
 </sst>
 </file>
@@ -679,12 +685,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -699,8 +711,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,6 +732,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1017,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758CD010-D20D-4A42-9A0A-62AFC0D46818}">
   <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1054,7 @@
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1060,8 +1080,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
@@ -1086,8 +1106,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3">
@@ -1109,8 +1129,8 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4">
@@ -1132,8 +1152,8 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5">
@@ -1155,8 +1175,8 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6">
@@ -1178,18 +1198,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>1090</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1020</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1204,8 +1224,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B8">
@@ -1230,8 +1250,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B9">
@@ -1256,8 +1276,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
@@ -1276,8 +1296,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
@@ -1296,8 +1316,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
@@ -1316,8 +1336,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B13">
@@ -1339,8 +1359,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B14">
@@ -1362,8 +1382,8 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B15">
@@ -1388,8 +1408,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B16">
@@ -1414,8 +1434,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B17">
@@ -1440,8 +1460,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B18">
@@ -1463,8 +1483,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B19">
@@ -1486,8 +1506,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B20">
@@ -1509,8 +1529,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B21">
@@ -1532,8 +1552,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B22">
@@ -1558,8 +1578,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B23">
@@ -1581,8 +1601,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B24">
@@ -1604,8 +1624,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B25">
@@ -1627,8 +1647,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B26">
@@ -1653,8 +1673,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B27">
@@ -1679,8 +1699,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B28">
@@ -1705,8 +1725,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B29">
@@ -1731,8 +1751,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B30">
@@ -1754,8 +1774,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B31">
@@ -1780,8 +1800,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B32">
@@ -1806,8 +1826,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B33">
@@ -1832,8 +1852,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B34">
@@ -1855,8 +1875,8 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B35">
@@ -1878,8 +1898,8 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="36" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B36">
@@ -1901,8 +1921,8 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B37">
@@ -1924,8 +1944,8 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B38">
@@ -1947,8 +1967,8 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="39" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B39">
@@ -1964,8 +1984,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B40">
@@ -1981,8 +2001,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B41">
@@ -2004,8 +2024,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B42">
@@ -2027,8 +2047,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B43">
@@ -2050,8 +2070,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B44">
@@ -2073,8 +2093,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B45">
@@ -2096,8 +2116,8 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="46" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B46">
@@ -2122,8 +2142,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B47">
@@ -2148,8 +2168,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B48">
@@ -2174,8 +2194,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B49">
@@ -2197,8 +2217,8 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="50" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B50">
@@ -2220,8 +2240,8 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="51" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B51">
@@ -2246,8 +2266,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B52">
@@ -2272,8 +2292,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B53">
@@ -2295,8 +2315,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B54">
@@ -2318,8 +2338,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B55">
@@ -2341,8 +2361,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B56">
@@ -2364,8 +2384,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B57">
@@ -2387,8 +2407,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B58">
@@ -2410,8 +2430,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B59">
@@ -2433,8 +2453,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B60">
@@ -2459,8 +2479,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B61">
@@ -2485,8 +2505,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B62">
@@ -2511,8 +2531,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B63">
@@ -2537,8 +2557,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="64" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B64">
@@ -2557,8 +2577,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="65" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B65">
@@ -2577,8 +2597,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B66">
@@ -2597,8 +2617,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B67">
@@ -2617,8 +2637,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B68">
@@ -2637,8 +2657,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B69">
@@ -2660,8 +2680,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B70">
@@ -2683,8 +2703,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C71" t="s">
@@ -2703,8 +2723,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B72">
@@ -2726,8 +2746,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B73">
@@ -2749,8 +2769,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B74">
@@ -2772,8 +2792,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B75">
@@ -2795,8 +2815,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B76">
@@ -2818,8 +2838,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B77">
@@ -2841,8 +2861,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B78">
@@ -2864,8 +2884,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B79">
@@ -2887,8 +2907,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B80">
@@ -2910,8 +2930,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B81">
@@ -2933,8 +2953,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B82">
@@ -2956,8 +2976,8 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="83" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B83">
@@ -2979,8 +2999,8 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="84" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B84">
@@ -3005,8 +3025,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B85">
@@ -3031,8 +3051,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B86">
@@ -3054,8 +3074,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B87">
@@ -3077,8 +3097,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B88">
@@ -3097,8 +3117,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B89">
@@ -3117,8 +3137,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B90">
@@ -3143,8 +3163,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B91">
@@ -3166,8 +3186,8 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="92" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B92">
@@ -3189,8 +3209,8 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B93">
@@ -3212,8 +3232,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B94">
@@ -3235,7 +3255,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
       <c r="B95">
         <v>6030</v>
       </c>
@@ -3255,8 +3276,8 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="96" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B96">
@@ -3278,8 +3299,8 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="97" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B97">
@@ -3301,8 +3322,8 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B98">
@@ -3321,8 +3342,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B99">
@@ -3341,8 +3362,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B100">
@@ -3364,8 +3385,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B101">
@@ -3387,8 +3408,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B102">
@@ -3410,8 +3431,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B103">
@@ -3430,8 +3451,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B104">
@@ -3450,8 +3471,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B105">
@@ -3473,8 +3494,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B106">
@@ -3496,8 +3517,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B107">
@@ -3519,8 +3540,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B108">
@@ -3542,8 +3563,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B109">
@@ -3565,8 +3586,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B110">
@@ -3588,8 +3609,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B111">
@@ -3611,8 +3632,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B112">
@@ -3634,8 +3655,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B113">
@@ -3657,8 +3678,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B114">
@@ -3680,8 +3701,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="115" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B115">
@@ -3703,8 +3724,8 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="116" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B116">
@@ -3726,8 +3747,8 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="117" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B117">
@@ -3749,8 +3770,8 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="118" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B118">
@@ -3772,8 +3793,8 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="119" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B119">
@@ -3795,8 +3816,8 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="120" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B120">
@@ -3818,8 +3839,8 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="121" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B121">
@@ -3841,8 +3862,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B122">
@@ -3867,8 +3888,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B123">
@@ -3893,8 +3914,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B124">
@@ -3919,8 +3940,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B125">
@@ -3945,8 +3966,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B126">
@@ -3968,8 +3989,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B127">
@@ -3991,8 +4012,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B128">
@@ -4014,8 +4035,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B129">
@@ -4037,8 +4058,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B130">
@@ -4057,8 +4078,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B131">
@@ -4077,8 +4098,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B132">
@@ -4097,8 +4118,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B133">
@@ -4120,8 +4141,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B134">
@@ -4143,8 +4164,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B135">
@@ -4166,8 +4187,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B136">
@@ -4189,8 +4210,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B137">
@@ -4212,8 +4233,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B138">
@@ -4235,8 +4256,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B139">
@@ -4261,8 +4282,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B140">
@@ -4287,8 +4308,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B141">
@@ -4310,8 +4331,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B142">
@@ -4333,8 +4354,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B143">
@@ -4356,8 +4377,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B144">
@@ -4382,8 +4403,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B145">
@@ -4408,8 +4429,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B146">
@@ -4431,8 +4452,8 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="147" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B147">
@@ -4454,8 +4475,8 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="148" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B148">
@@ -4480,8 +4501,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B149">
@@ -4506,8 +4527,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B150">
@@ -4532,8 +4553,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B151">
@@ -4555,8 +4576,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B152">
@@ -4581,8 +4602,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B153">
@@ -4607,8 +4628,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B154">
@@ -4633,8 +4654,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B155">
@@ -4659,8 +4680,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="156" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B156">
@@ -4685,8 +4706,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="157" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B157">
@@ -4711,8 +4732,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B158">
@@ -4731,8 +4752,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B159">
@@ -4751,8 +4772,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B160">
@@ -4771,8 +4792,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="161" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B161">
@@ -4791,8 +4812,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B162">
@@ -4811,8 +4832,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="163" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B163">
@@ -4831,19 +4852,6 @@
         <v>202</v>
       </c>
     </row>
-    <row r="164" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="177" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
